--- a/config_ios/fish_3d_yutu_random_3.xlsx
+++ b/config_ios/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="77">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,12 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30,40,30</t>
-  </si>
-  <si>
-    <t>20,60,5</t>
-  </si>
-  <si>
     <t>dead_force_create_index|死亡强制创建标志索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,121 +239,98 @@
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>max_create_num|最大的创建次数（默认为9999）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>35,42,43,44,45,47,47,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽</t>
+  </si>
+  <si>
+    <t>55,125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小boss-鲨鱼武士,熔岩鲨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,103,104,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,105,106,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,107,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>28,29,30,31,32,33,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,42,43,44,45,47,47,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽</t>
-  </si>
-  <si>
-    <t>55,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小boss-鲨鱼武士,熔岩鲨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,103,104,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,105,106,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,107,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,64,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,29,30,31,32,33,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
+    <t>1,2,3,4,5,7,8,9,10,11,26,27,64,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D2" sqref="D2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,7 +1066,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -1110,10 +1081,10 @@
         <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1121,19 +1092,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D2" s="11">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E2" s="11">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1141,19 +1112,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D3" s="11">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E3" s="11">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1161,19 +1132,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D4" s="11">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="E4" s="11">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1181,10 +1152,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11">
         <v>400</v>
@@ -1193,7 +1164,7 @@
         <v>500</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1201,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1213,7 +1184,7 @@
         <v>600</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1221,19 +1192,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>82</v>
-      </c>
       <c r="D7" s="11">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="E7" s="11">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" s="10"/>
       <c r="I7" s="10"/>
@@ -1243,39 +1214,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E8" s="11">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D9" s="11">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="E9" s="11">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1283,64 +1257,65 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D10" s="11">
-        <v>80</v>
+        <v>1800</v>
       </c>
       <c r="E10" s="11">
-        <v>100</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2200</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="11">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="E11" s="11">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="11">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="E12" s="11">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1351,68 +1326,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D13" s="11">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="E13" s="11">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="11">
-        <v>3800</v>
-      </c>
-      <c r="E14" s="11">
-        <v>4200</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="11">
-        <v>4800</v>
-      </c>
-      <c r="E15" s="11">
-        <v>5200</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>52</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,7 +1761,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1863,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -1880,16 +1812,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1897,16 +1829,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1914,16 +1846,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>50</v>
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1931,16 +1863,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
